--- a/regionseng/9/industry/industry.xlsx
+++ b/regionseng/9/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -151,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,6 +169,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +486,7 @@
     <col min="1" max="1" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -500,7 +503,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>2006</v>
@@ -547,8 +550,14 @@
       <c r="P2" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -597,8 +606,14 @@
       <c r="P3" s="4">
         <v>665.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4">
+        <v>794.5</v>
+      </c>
+      <c r="R3" s="4">
+        <v>962.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -647,8 +662,14 @@
       <c r="P4" s="4">
         <v>714.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="4">
+        <v>888.6</v>
+      </c>
+      <c r="R4" s="4">
+        <v>944.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -697,8 +718,14 @@
       <c r="P5" s="9">
         <v>6581</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="9">
+        <v>6765</v>
+      </c>
+      <c r="R5" s="9">
+        <v>6923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -747,8 +774,14 @@
       <c r="P6" s="9">
         <v>6109</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="9">
+        <v>6195</v>
+      </c>
+      <c r="R6" s="9">
+        <v>6382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -797,8 +830,14 @@
       <c r="P7" s="4">
         <v>1034</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="4">
+        <v>1103.3</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1283.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -847,8 +886,14 @@
       <c r="P8" s="4">
         <v>495.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="4">
+        <v>473.7</v>
+      </c>
+      <c r="R8" s="4">
+        <v>636.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -897,8 +942,14 @@
       <c r="P9" s="4">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="R9" s="4">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -947,8 +998,14 @@
       <c r="P10" s="4">
         <v>219.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="4">
+        <v>414.9</v>
+      </c>
+      <c r="R10" s="4">
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -997,8 +1054,14 @@
       <c r="P11" s="4">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="R11" s="4">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1047,8 +1110,14 @@
       <c r="P12" s="4">
         <v>550</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="4">
+        <v>512.4</v>
+      </c>
+      <c r="R12" s="4">
+        <v>669.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>

--- a/regionseng/9/industry/industry.xlsx
+++ b/regionseng/9/industry/industry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,7 +486,7 @@
     <col min="1" max="1" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -503,7 +503,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>2006</v>
@@ -556,8 +556,11 @@
       <c r="R2" s="10">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -612,8 +615,11 @@
       <c r="R3" s="4">
         <v>962.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="4">
+        <v>960.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -668,8 +674,11 @@
       <c r="R4" s="4">
         <v>944.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="4">
+        <v>981.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -724,8 +733,11 @@
       <c r="R5" s="9">
         <v>6923</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="9">
+        <v>7008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -780,8 +792,11 @@
       <c r="R6" s="9">
         <v>6382</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="9">
+        <v>6730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -836,8 +851,11 @@
       <c r="R7" s="4">
         <v>1283.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="4">
+        <v>1516.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -892,8 +910,11 @@
       <c r="R8" s="4">
         <v>636.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="4">
+        <v>590.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -948,8 +969,11 @@
       <c r="R9" s="4">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="4">
+        <v>124.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1004,8 +1028,11 @@
       <c r="R10" s="4">
         <v>308.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="4">
+        <v>390.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1060,8 +1087,11 @@
       <c r="R11" s="4">
         <v>81.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="4">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1116,8 +1146,11 @@
       <c r="R12" s="4">
         <v>669.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="4">
+        <v>653.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
